--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Quarterly Results of 3i Infotech(in Rs. Cr.)</t>
   </si>
@@ -209,6 +209,141 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>78.26</t>
+  </si>
+  <si>
+    <t>90.95</t>
+  </si>
+  <si>
+    <t>79.08</t>
+  </si>
+  <si>
+    <t>93.17</t>
+  </si>
+  <si>
+    <t>108.29</t>
+  </si>
+  <si>
+    <t>105.80</t>
+  </si>
+  <si>
+    <t>93.46</t>
+  </si>
+  <si>
+    <t>81.77</t>
+  </si>
+  <si>
+    <t>84.08</t>
+  </si>
+  <si>
+    <t>79.54</t>
+  </si>
+  <si>
+    <t>84.85</t>
+  </si>
+  <si>
+    <t>81.33</t>
+  </si>
+  <si>
+    <t>55.93</t>
+  </si>
+  <si>
+    <t>64.57</t>
+  </si>
+  <si>
+    <t>66.99</t>
+  </si>
+  <si>
+    <t>55.38</t>
+  </si>
+  <si>
+    <t>57.72</t>
+  </si>
+  <si>
+    <t>58.12</t>
+  </si>
+  <si>
+    <t>66.29</t>
+  </si>
+  <si>
+    <t>58.70</t>
+  </si>
+  <si>
+    <t>75.67</t>
+  </si>
+  <si>
+    <t>74.27</t>
+  </si>
+  <si>
+    <t>75.28</t>
+  </si>
+  <si>
+    <t>74.21</t>
+  </si>
+  <si>
+    <t>80.98</t>
+  </si>
+  <si>
+    <t>91.60</t>
+  </si>
+  <si>
+    <t>91.48</t>
+  </si>
+  <si>
+    <t>81.58</t>
+  </si>
+  <si>
+    <t>86.33</t>
+  </si>
+  <si>
+    <t>86.72</t>
+  </si>
+  <si>
+    <t>52.22</t>
+  </si>
+  <si>
+    <t>53.10</t>
+  </si>
+  <si>
+    <t>58.63</t>
+  </si>
+  <si>
+    <t>46.86</t>
+  </si>
+  <si>
+    <t>54.01</t>
+  </si>
+  <si>
+    <t>62.58</t>
+  </si>
+  <si>
+    <t>68.62</t>
+  </si>
+  <si>
+    <t>69.65</t>
+  </si>
+  <si>
+    <t>75.40</t>
+  </si>
+  <si>
+    <t>82.78</t>
+  </si>
+  <si>
+    <t>91.07</t>
+  </si>
+  <si>
+    <t>91.64</t>
+  </si>
+  <si>
+    <t>91.83</t>
+  </si>
+  <si>
+    <t>89.77</t>
+  </si>
+  <si>
+    <t>89.40</t>
   </si>
 </sst>
 </file>
@@ -638,8 +773,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>78.26000000000001</v>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
         <v>78.26000000000001</v>
@@ -669,7 +804,7 @@
         <v>-95.98</v>
       </c>
       <c r="L2">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M2">
         <v>-95.98</v>
@@ -700,8 +835,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>90.95</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3">
         <v>90.95</v>
@@ -731,7 +866,7 @@
         <v>-139.21</v>
       </c>
       <c r="L3">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M3">
         <v>-139.21</v>
@@ -762,8 +897,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>79.08</v>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
       <c r="C4">
         <v>79.08</v>
@@ -824,8 +959,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>93.17</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>93.17</v>
@@ -855,7 +990,7 @@
         <v>-105.21</v>
       </c>
       <c r="L5">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M5">
         <v>-105.21</v>
@@ -886,8 +1021,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>108.29</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="C6">
         <v>108.29</v>
@@ -917,7 +1052,7 @@
         <v>-100.4</v>
       </c>
       <c r="L6">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M6">
         <v>-100.4</v>
@@ -948,8 +1083,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>105.8</v>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7">
         <v>105.8</v>
@@ -1010,8 +1145,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>93.45999999999999</v>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
         <v>93.45999999999999</v>
@@ -1072,8 +1207,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>81.77</v>
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9">
         <v>81.77</v>
@@ -1103,7 +1238,7 @@
         <v>-101.52</v>
       </c>
       <c r="L9">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M9">
         <v>-101.52</v>
@@ -1134,8 +1269,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>84.08</v>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
       <c r="C10">
         <v>84.08</v>
@@ -1165,7 +1300,7 @@
         <v>-111.91</v>
       </c>
       <c r="L10">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M10">
         <v>-111.91</v>
@@ -1196,8 +1331,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>79.54000000000001</v>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11">
         <v>79.54000000000001</v>
@@ -1227,7 +1362,7 @@
         <v>-17.65</v>
       </c>
       <c r="L11">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M11">
         <v>-17.65</v>
@@ -1258,8 +1393,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>84.84999999999999</v>
+      <c r="B12" t="s">
+        <v>75</v>
       </c>
       <c r="C12">
         <v>84.84999999999999</v>
@@ -1320,8 +1455,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>81.33</v>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
       <c r="C13">
         <v>81.33</v>
@@ -1351,7 +1486,7 @@
         <v>15.51</v>
       </c>
       <c r="L13">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M13">
         <v>15.51</v>
@@ -1382,8 +1517,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>55.93</v>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
       <c r="C14">
         <v>55.93</v>
@@ -1413,7 +1548,7 @@
         <v>14.44</v>
       </c>
       <c r="L14">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M14">
         <v>14.44</v>
@@ -1444,8 +1579,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>64.56999999999999</v>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
       <c r="C15">
         <v>64.56999999999999</v>
@@ -1475,7 +1610,7 @@
         <v>56.79</v>
       </c>
       <c r="L15">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M15">
         <v>56.79</v>
@@ -1506,8 +1641,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>66.98999999999999</v>
+      <c r="B16" t="s">
+        <v>79</v>
       </c>
       <c r="C16">
         <v>66.98999999999999</v>
@@ -1568,8 +1703,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>55.38</v>
+      <c r="B17" t="s">
+        <v>80</v>
       </c>
       <c r="C17">
         <v>55.38</v>
@@ -1630,8 +1765,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>57.72</v>
+      <c r="B18" t="s">
+        <v>81</v>
       </c>
       <c r="C18">
         <v>57.72</v>
@@ -1692,8 +1827,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>58.12</v>
+      <c r="B19" t="s">
+        <v>82</v>
       </c>
       <c r="C19">
         <v>58.12</v>
@@ -1754,8 +1889,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>66.29000000000001</v>
+      <c r="B20" t="s">
+        <v>83</v>
       </c>
       <c r="C20">
         <v>66.29000000000001</v>
@@ -1816,8 +1951,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>58.7</v>
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
       <c r="C21">
         <v>58.7</v>
@@ -1878,8 +2013,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>75.67</v>
+      <c r="B22" t="s">
+        <v>85</v>
       </c>
       <c r="C22">
         <v>75.67</v>
@@ -1940,8 +2075,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>74.27</v>
+      <c r="B23" t="s">
+        <v>86</v>
       </c>
       <c r="C23">
         <v>74.27</v>
@@ -2002,8 +2137,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>75.28</v>
+      <c r="B24" t="s">
+        <v>87</v>
       </c>
       <c r="C24">
         <v>75.28</v>
@@ -2064,8 +2199,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>74.20999999999999</v>
+      <c r="B25" t="s">
+        <v>88</v>
       </c>
       <c r="C25">
         <v>74.20999999999999</v>
@@ -2126,8 +2261,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>80.98</v>
+      <c r="B26" t="s">
+        <v>89</v>
       </c>
       <c r="C26">
         <v>80.98</v>
@@ -2188,8 +2323,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>91.59999999999999</v>
+      <c r="B27" t="s">
+        <v>90</v>
       </c>
       <c r="C27">
         <v>91.59999999999999</v>
@@ -2250,8 +2385,8 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>91.48</v>
+      <c r="B28" t="s">
+        <v>91</v>
       </c>
       <c r="C28">
         <v>91.48</v>
@@ -2312,8 +2447,8 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>81.58</v>
+      <c r="B29" t="s">
+        <v>92</v>
       </c>
       <c r="C29">
         <v>81.58</v>
@@ -2374,8 +2509,8 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>86.33</v>
+      <c r="B30" t="s">
+        <v>93</v>
       </c>
       <c r="C30">
         <v>86.33</v>
@@ -2436,8 +2571,8 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>86.72</v>
+      <c r="B31" t="s">
+        <v>94</v>
       </c>
       <c r="C31">
         <v>86.72</v>
@@ -2498,8 +2633,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>52.22</v>
+      <c r="B32" t="s">
+        <v>95</v>
       </c>
       <c r="C32">
         <v>52.22</v>
@@ -2560,8 +2695,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>53.1</v>
+      <c r="B33" t="s">
+        <v>96</v>
       </c>
       <c r="C33">
         <v>53.1</v>
@@ -2622,8 +2757,8 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>58.63</v>
+      <c r="B34" t="s">
+        <v>97</v>
       </c>
       <c r="C34">
         <v>58.63</v>
@@ -2684,8 +2819,8 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>46.86</v>
+      <c r="B35" t="s">
+        <v>98</v>
       </c>
       <c r="C35">
         <v>46.86</v>
@@ -2746,8 +2881,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>54.01</v>
+      <c r="B36" t="s">
+        <v>99</v>
       </c>
       <c r="C36">
         <v>54.01</v>
@@ -2808,8 +2943,8 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>62.58</v>
+      <c r="B37" t="s">
+        <v>100</v>
       </c>
       <c r="C37">
         <v>62.58</v>
@@ -2839,7 +2974,7 @@
         <v>25.54</v>
       </c>
       <c r="L37">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M37">
         <v>25.54</v>
@@ -2870,8 +3005,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>68.62</v>
+      <c r="B38" t="s">
+        <v>101</v>
       </c>
       <c r="C38">
         <v>68.62</v>
@@ -2932,8 +3067,8 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>69.65000000000001</v>
+      <c r="B39" t="s">
+        <v>102</v>
       </c>
       <c r="C39">
         <v>69.65000000000001</v>
@@ -2981,21 +3116,21 @@
         <v>2.46</v>
       </c>
       <c r="R39">
-        <v>-1.424545454545455</v>
+        <v>-1.42</v>
       </c>
       <c r="S39">
         <v>2.46</v>
       </c>
       <c r="T39">
-        <v>-1.705681818181819</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>75.40000000000001</v>
+      <c r="B40" t="s">
+        <v>103</v>
       </c>
       <c r="C40">
         <v>75.40000000000001</v>
@@ -3056,8 +3191,8 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>82.78</v>
+      <c r="B41" t="s">
+        <v>104</v>
       </c>
       <c r="C41">
         <v>82.78</v>
@@ -3118,8 +3253,8 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>91.06999999999999</v>
+      <c r="B42" t="s">
+        <v>105</v>
       </c>
       <c r="C42">
         <v>91.06999999999999</v>
@@ -3149,7 +3284,7 @@
         <v>-114.78</v>
       </c>
       <c r="L42">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M42">
         <v>-114.78</v>
@@ -3180,8 +3315,8 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>91.64</v>
+      <c r="B43" t="s">
+        <v>106</v>
       </c>
       <c r="C43">
         <v>91.64</v>
@@ -3242,8 +3377,8 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>91.83</v>
+      <c r="B44" t="s">
+        <v>107</v>
       </c>
       <c r="C44">
         <v>91.83</v>
@@ -3304,8 +3439,8 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>89.77</v>
+      <c r="B45" t="s">
+        <v>108</v>
       </c>
       <c r="C45">
         <v>89.77</v>
@@ -3335,7 +3470,7 @@
         <v>-9</v>
       </c>
       <c r="L45">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M45">
         <v>-9</v>
@@ -3366,8 +3501,8 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>89.40000000000001</v>
+      <c r="B46" t="s">
+        <v>109</v>
       </c>
       <c r="C46">
         <v>89.40000000000001</v>
@@ -3397,7 +3532,7 @@
         <v>13.53</v>
       </c>
       <c r="L46">
-        <v>-47.89677419354839</v>
+        <v>-47.9</v>
       </c>
       <c r="M46">
         <v>13.53</v>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/3i Infotech Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\3i Infotech Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DEED0F-3E4C-4F4C-B194-2ABAB4CC7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -349,8 +355,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,13 +419,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +471,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -491,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,9 +540,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,14 +716,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -777,10 +797,10 @@
         <v>65</v>
       </c>
       <c r="C2">
-        <v>78.26000000000001</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="D2">
-        <v>38.63</v>
+        <v>38.630000000000003</v>
       </c>
       <c r="E2">
         <v>55.44</v>
@@ -816,7 +836,7 @@
         <v>-97.48</v>
       </c>
       <c r="P2">
-        <v>571.9400000000001</v>
+        <v>571.94000000000005</v>
       </c>
       <c r="Q2">
         <v>-1.79</v>
@@ -831,7 +851,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -845,7 +865,7 @@
         <v>43.95</v>
       </c>
       <c r="E3">
-        <v>67.06999999999999</v>
+        <v>67.069999999999993</v>
       </c>
       <c r="F3">
         <v>30.53</v>
@@ -854,13 +874,13 @@
         <v>-50.6</v>
       </c>
       <c r="H3">
-        <v>-1.12</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="I3">
         <v>-51.72</v>
       </c>
       <c r="J3">
-        <v>87.48999999999999</v>
+        <v>87.49</v>
       </c>
       <c r="K3">
         <v>-139.21</v>
@@ -878,7 +898,7 @@
         <v>-139.44</v>
       </c>
       <c r="P3">
-        <v>571.9400000000001</v>
+        <v>571.94000000000005</v>
       </c>
       <c r="Q3">
         <v>-2.52</v>
@@ -893,7 +913,7 @@
         <v>-2.52</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -931,7 +951,7 @@
         <v>-35.85</v>
       </c>
       <c r="M4">
-        <v>-136.61</v>
+        <v>-136.61000000000001</v>
       </c>
       <c r="N4">
         <v>-121.33</v>
@@ -949,13 +969,13 @@
         <v>-1.58</v>
       </c>
       <c r="S4">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="T4">
-        <v>-2.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1017,7 +1037,7 @@
         <v>-1.92</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>-100.4</v>
       </c>
       <c r="P6">
-        <v>580.6799999999999</v>
+        <v>580.67999999999995</v>
       </c>
       <c r="Q6">
         <v>-1.82</v>
@@ -1079,7 +1099,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1116,7 @@
         <v>55.05</v>
       </c>
       <c r="F7">
-        <v>78.29000000000001</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="G7">
         <v>-67.75</v>
@@ -1141,7 +1161,7 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1149,7 +1169,7 @@
         <v>71</v>
       </c>
       <c r="C8">
-        <v>93.45999999999999</v>
+        <v>93.46</v>
       </c>
       <c r="D8">
         <v>25.21</v>
@@ -1173,7 +1193,7 @@
         <v>34.35</v>
       </c>
       <c r="K8">
-        <v>-18.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="L8">
         <v>-360.82</v>
@@ -1203,7 +1223,7 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1270,7 @@
         <v>-101.52</v>
       </c>
       <c r="P9">
-        <v>612.4299999999999</v>
+        <v>612.42999999999995</v>
       </c>
       <c r="Q9">
         <v>-1.75</v>
@@ -1265,7 +1285,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1327,7 +1347,7 @@
         <v>-1.91</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1335,7 +1355,7 @@
         <v>74</v>
       </c>
       <c r="C11">
-        <v>79.54000000000001</v>
+        <v>79.540000000000006</v>
       </c>
       <c r="D11">
         <v>22.27</v>
@@ -1347,7 +1367,7 @@
         <v>23.61</v>
       </c>
       <c r="G11">
-        <v>-18.56</v>
+        <v>-18.559999999999999</v>
       </c>
       <c r="H11">
         <v>43.2</v>
@@ -1359,22 +1379,22 @@
         <v>42.29</v>
       </c>
       <c r="K11">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="L11">
         <v>-47.9</v>
       </c>
       <c r="M11">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="N11">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="O11">
-        <v>-17.65</v>
+        <v>-17.649999999999999</v>
       </c>
       <c r="P11">
-        <v>636.1900000000001</v>
+        <v>636.19000000000005</v>
       </c>
       <c r="Q11">
         <v>-0.36</v>
@@ -1389,7 +1409,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1397,10 +1417,10 @@
         <v>75</v>
       </c>
       <c r="C12">
-        <v>84.84999999999999</v>
+        <v>84.85</v>
       </c>
       <c r="D12">
-        <v>17.56</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="E12">
         <v>55</v>
@@ -1427,7 +1447,7 @@
         <v>-698.03</v>
       </c>
       <c r="M12">
-        <v>-705.4299999999999</v>
+        <v>-705.43</v>
       </c>
       <c r="N12">
         <v>-832.58</v>
@@ -1436,7 +1456,7 @@
         <v>-832.58</v>
       </c>
       <c r="P12">
-        <v>640.8</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="Q12">
         <v>-2.1</v>
@@ -1451,7 +1471,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1498,7 +1518,7 @@
         <v>15.51</v>
       </c>
       <c r="P13">
-        <v>640.8</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="Q13">
         <v>0.24</v>
@@ -1513,7 +1533,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>1.54</v>
       </c>
       <c r="F14">
-        <v>9.210000000000001</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="G14">
         <v>20.57</v>
@@ -1539,7 +1559,7 @@
         <v>15.05</v>
       </c>
       <c r="I14">
-        <v>35.62</v>
+        <v>35.619999999999997</v>
       </c>
       <c r="J14">
         <v>21.18</v>
@@ -1575,7 +1595,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>78</v>
       </c>
       <c r="C15">
-        <v>64.56999999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="D15">
         <v>6.49</v>
@@ -1595,7 +1615,7 @@
         <v>21.2</v>
       </c>
       <c r="G15">
-        <v>35.12</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="H15">
         <v>44.05</v>
@@ -1637,7 +1657,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1665,7 @@
         <v>79</v>
       </c>
       <c r="C16">
-        <v>66.98999999999999</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="D16">
         <v>19.96</v>
@@ -1675,7 +1695,7 @@
         <v>-25.6</v>
       </c>
       <c r="M16">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="N16">
         <v>5.72</v>
@@ -1684,7 +1704,7 @@
         <v>5.72</v>
       </c>
       <c r="P16">
-        <v>1183.65</v>
+        <v>1183.6500000000001</v>
       </c>
       <c r="Q16">
         <v>0.05</v>
@@ -1699,7 +1719,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1742,7 @@
         <v>21.39</v>
       </c>
       <c r="H17">
-        <v>9.380000000000001</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I17">
         <v>30.77</v>
@@ -1731,7 +1751,7 @@
         <v>12.01</v>
       </c>
       <c r="K17">
-        <v>18.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="L17">
         <v>-3.05</v>
@@ -1749,19 +1769,19 @@
         <v>1286</v>
       </c>
       <c r="Q17">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R17">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S17">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T17">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +1795,7 @@
         <v>22.5</v>
       </c>
       <c r="E18">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F18">
         <v>162.13</v>
@@ -1823,7 +1843,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1855,10 +1875,10 @@
         <v>12.37</v>
       </c>
       <c r="K19">
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="L19">
-        <v>-18.4</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="M19">
         <v>1.95</v>
@@ -1885,7 +1905,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1893,7 +1913,7 @@
         <v>83</v>
       </c>
       <c r="C20">
-        <v>66.29000000000001</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="D20">
         <v>24.08</v>
@@ -1920,13 +1940,13 @@
         <v>14.85</v>
       </c>
       <c r="L20">
-        <v>17.35</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="M20">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="N20">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="O20">
         <v>27.75</v>
@@ -1947,7 +1967,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2009,7 +2029,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2020,19 +2040,19 @@
         <v>75.67</v>
       </c>
       <c r="D22">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E22">
         <v>1.68</v>
       </c>
       <c r="F22">
-        <v>17.44</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="G22">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="H22">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I22">
         <v>41.21</v>
@@ -2047,10 +2067,10 @@
         <v>52.69</v>
       </c>
       <c r="M22">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="N22">
-        <v>83.15000000000001</v>
+        <v>83.15</v>
       </c>
       <c r="O22">
         <v>78.61</v>
@@ -2071,7 +2091,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2183,19 +2203,19 @@
         <v>1616.64</v>
       </c>
       <c r="Q24">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R24">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S24">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T24">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2203,7 +2223,7 @@
         <v>88</v>
       </c>
       <c r="C25">
-        <v>74.20999999999999</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="D25">
         <v>35</v>
@@ -2227,7 +2247,7 @@
         <v>11.43</v>
       </c>
       <c r="K25">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L25">
         <v>-5.85</v>
@@ -2239,7 +2259,7 @@
         <v>3.35</v>
       </c>
       <c r="O25">
-        <v>-2.03</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="P25">
         <v>1616.64</v>
@@ -2257,7 +2277,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2271,7 +2291,7 @@
         <v>30.29</v>
       </c>
       <c r="E26">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F26">
         <v>19.96</v>
@@ -2319,7 +2339,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2327,10 +2347,10 @@
         <v>90</v>
       </c>
       <c r="C27">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="D27">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E27">
         <v>4.34</v>
@@ -2381,7 +2401,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>10.65</v>
       </c>
       <c r="K28">
-        <v>77.23999999999999</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="L28">
         <v>-5.41</v>
@@ -2422,10 +2442,10 @@
         <v>71.83</v>
       </c>
       <c r="N28">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="O28">
-        <v>71.76000000000001</v>
+        <v>71.760000000000005</v>
       </c>
       <c r="P28">
         <v>1616.65</v>
@@ -2443,7 +2463,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2463,7 +2483,7 @@
         <v>7.97</v>
       </c>
       <c r="G29">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="H29">
         <v>5.01</v>
@@ -2472,7 +2492,7 @@
         <v>39.56</v>
       </c>
       <c r="J29">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="K29">
         <v>29.85</v>
@@ -2505,7 +2525,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2519,7 +2539,7 @@
         <v>29.24</v>
       </c>
       <c r="E30">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F30">
         <v>37.57</v>
@@ -2534,7 +2554,7 @@
         <v>18.41</v>
       </c>
       <c r="J30">
-        <v>9.970000000000001</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="K30">
         <v>8.44</v>
@@ -2567,7 +2587,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2584,16 +2604,16 @@
         <v>4.33</v>
       </c>
       <c r="F31">
-        <v>18.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G31">
-        <v>34.62</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="H31">
         <v>2.72</v>
       </c>
       <c r="I31">
-        <v>37.34</v>
+        <v>37.340000000000003</v>
       </c>
       <c r="J31">
         <v>9.42</v>
@@ -2629,7 +2649,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2649,10 +2669,10 @@
         <v>48.8</v>
       </c>
       <c r="G32">
-        <v>-36.63</v>
+        <v>-36.630000000000003</v>
       </c>
       <c r="H32">
-        <v>9.130000000000001</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="I32">
         <v>-27.5</v>
@@ -2673,7 +2693,7 @@
         <v>254.65</v>
       </c>
       <c r="O32">
-        <v>277.91</v>
+        <v>277.91000000000003</v>
       </c>
       <c r="P32">
         <v>1616.65</v>
@@ -2691,7 +2711,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>22.69</v>
       </c>
       <c r="E33">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F33">
         <v>22.11</v>
@@ -2753,7 +2773,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>-18.21</v>
       </c>
       <c r="H34">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I34">
         <v>-13.52</v>
@@ -2800,7 +2820,7 @@
         <v>-12.42</v>
       </c>
       <c r="P34">
-        <v>161.67</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="Q34">
         <v>-0.77</v>
@@ -2815,7 +2835,7 @@
         <v>-0.77</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2850,7 +2870,7 @@
         <v>-13.16</v>
       </c>
       <c r="L35">
-        <v>-8.609999999999999</v>
+        <v>-8.61</v>
       </c>
       <c r="M35">
         <v>-21.77</v>
@@ -2877,7 +2897,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>24.11</v>
       </c>
       <c r="E36">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F36">
         <v>20.72</v>
@@ -2906,7 +2926,7 @@
         <v>6.38</v>
       </c>
       <c r="J36">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K36">
         <v>3.93</v>
@@ -2939,7 +2959,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>62.58</v>
       </c>
       <c r="D37">
-        <v>32.91</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="E37">
         <v>4.49</v>
@@ -3001,7 +3021,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3063,7 +3083,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3071,10 +3091,10 @@
         <v>102</v>
       </c>
       <c r="C39">
-        <v>69.65000000000001</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="D39">
-        <v>36.91</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="E39">
         <v>7.18</v>
@@ -3125,7 +3145,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3133,10 +3153,10 @@
         <v>103</v>
       </c>
       <c r="C40">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D40">
-        <v>36.16</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="E40">
         <v>5.03</v>
@@ -3187,7 +3207,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3198,10 +3218,10 @@
         <v>82.78</v>
       </c>
       <c r="D41">
-        <v>37.48</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="E41">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F41">
         <v>51.41</v>
@@ -3249,7 +3269,7 @@
         <v>-0.91</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3257,7 +3277,7 @@
         <v>105</v>
       </c>
       <c r="C42">
-        <v>91.06999999999999</v>
+        <v>91.07</v>
       </c>
       <c r="D42">
         <v>46.58</v>
@@ -3278,7 +3298,7 @@
         <v>-112.56</v>
       </c>
       <c r="J42">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K42">
         <v>-114.78</v>
@@ -3311,7 +3331,7 @@
         <v>-6.78</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3373,7 +3393,7 @@
         <v>-38.1</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3390,7 +3410,7 @@
         <v>6.98</v>
       </c>
       <c r="F44">
-        <v>84.15000000000001</v>
+        <v>84.15</v>
       </c>
       <c r="G44">
         <v>-51.38</v>
@@ -3408,7 +3428,7 @@
         <v>-49.87</v>
       </c>
       <c r="L44">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="M44">
         <v>-45.64</v>
@@ -3435,7 +3455,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>-0.53</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>109</v>
       </c>
       <c r="C46">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="D46">
         <v>50.49</v>
